--- a/data/trans_bre/P44D-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P44D-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-20.90754110329297</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8856637180335886</v>
+        <v>0.88566371803359</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.3035460129862673</v>
@@ -627,7 +627,7 @@
         <v>-1</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1504872165635036</v>
+        <v>0.1504872165635039</v>
       </c>
     </row>
     <row r="5">
@@ -638,18 +638,18 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-37.85691305985305</v>
+        <v>-34.94082790403989</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-43.95229712988484</v>
+        <v>-43.04845779587406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.087618877448971</v>
+        <v>-5.787425748716108</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.733521668017168</v>
+        <v>-0.7150241069795243</v>
       </c>
     </row>
     <row r="6">
@@ -660,18 +660,18 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>51.50948628202149</v>
+        <v>54.40002580674393</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.107400039414061</v>
+        <v>-5.11537082863469</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.584810914377092</v>
+        <v>9.229733709192365</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>3.437997755882439</v>
+        <v>3.737208109951533</v>
       </c>
     </row>
     <row r="7">
@@ -714,18 +714,18 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-27.59264253274363</v>
+        <v>-24.7734174144617</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.22954478644468</v>
+        <v>-14.09880081728457</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.8407846064328991</v>
+        <v>-0.8534304279052567</v>
       </c>
     </row>
     <row r="9">
@@ -736,18 +736,18 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.09111080825163</v>
+        <v>19.47127531186344</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>79.382069126944</v>
+        <v>76.27795707272807</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.58493006584688</v>
+        <v>6.780528844129316</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>2.128111373418183</v>
+        <v>1.782898587795683</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +768,7 @@
         <v>-7.347954267560326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.171674839098763</v>
+        <v>3.171674839098761</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-1</v>
@@ -777,7 +777,7 @@
         <v>-0.5038530070627693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4970481230030546</v>
+        <v>0.4970481230030542</v>
       </c>
     </row>
     <row r="11">
@@ -788,18 +788,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-62.7868386774023</v>
+        <v>-49.73656339460001</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-27.24462239993704</v>
+        <v>-25.70165753303419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.087389765030145</v>
+        <v>-5.099216522781494</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.5721595936100849</v>
+        <v>-0.5569453114383014</v>
       </c>
     </row>
     <row r="12">
@@ -813,15 +813,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.96828962112414</v>
+        <v>16.32928593239959</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.9907375972518</v>
+        <v>11.30983658927491</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>4.022477412702895</v>
+        <v>4.976762704621502</v>
       </c>
     </row>
     <row r="13">
@@ -862,20 +862,20 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-69.38171317222596</v>
+        <v>-65.24380059077399</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-22.40262009493328</v>
+        <v>-21.30945286719101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.383319537853555</v>
+        <v>-7.558455097804592</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8086840183963994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4074791812080285</v>
+        <v>-0.502531808380396</v>
       </c>
     </row>
     <row r="15">
@@ -886,20 +886,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.211610788162371</v>
+        <v>6.612223445801035</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>25.65753297734783</v>
+        <v>24.11580088180641</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.06107356607525</v>
+        <v>11.71983791919969</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>3.186741577940915</v>
+        <v>4.219760692533518</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.149799966599067</v>
+        <v>2.265801832379616</v>
       </c>
     </row>
     <row r="16">
@@ -920,7 +920,7 @@
         <v>-33.28136714228993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-4.641989363110979</v>
+        <v>-4.641989363110978</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-1</v>
@@ -929,7 +929,7 @@
         <v>-1</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.6204189379338868</v>
+        <v>-0.6204189379338866</v>
       </c>
     </row>
     <row r="17">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-75.04303178271482</v>
+        <v>-64.89546252662541</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>-100</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.06005863062179</v>
+        <v>-19.72043189393853</v>
       </c>
       <c r="F17" s="6" t="inlineStr"/>
       <c r="G17" s="6" t="inlineStr"/>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.62183343682209</v>
+        <v>4.303611157862533</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr"/>
@@ -990,7 +990,7 @@
         <v>-9.662368211746184</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-1.825881346017786</v>
+        <v>-1.825881346017787</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-1</v>
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-41.77512421522918</v>
+        <v>-47.33242185962975</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-51.52225986357458</v>
+        <v>-44.16072943609151</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-8.811335611999011</v>
+        <v>-9.21798953225592</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.132022221205769</v>
+        <v>2.568501510550083</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
@@ -1069,7 +1069,7 @@
         <v>-0.2935584576047274</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.5880887216079167</v>
+        <v>-0.5880887216079166</v>
       </c>
     </row>
     <row r="23">
@@ -1080,22 +1080,20 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.87653544169748</v>
+        <v>-7.734249101883652</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.61290277816764</v>
+        <v>-16.42328146608815</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.87168374392436</v>
+        <v>-19.13410003600126</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.6941632526247947</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6291253790710072</v>
+      </c>
+      <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>-0.7766308048715678</v>
+        <v>-0.7735489365244461</v>
       </c>
     </row>
     <row r="24">
@@ -1106,20 +1104,18 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>54.36034832147742</v>
+        <v>55.83504078046534</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.80434703949403</v>
+        <v>13.11661450545352</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.667772621890265</v>
+        <v>-4.007054739599975</v>
       </c>
       <c r="F24" s="6" t="inlineStr"/>
-      <c r="G24" s="6" t="n">
-        <v>4.110075746583523</v>
-      </c>
+      <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>-0.2463021103895091</v>
+        <v>-0.2468236422932933</v>
       </c>
     </row>
     <row r="25">
@@ -1140,7 +1136,7 @@
         <v>22.264230398839</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>-2.017583276498549</v>
+        <v>-2.017583276498553</v>
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
@@ -1151,7 +1147,7 @@
         <v>1.351788317449331</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2754788540502542</v>
+        <v>-0.2754788540502546</v>
       </c>
     </row>
     <row r="26">
@@ -1165,17 +1161,17 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-7.17963891112297</v>
+        <v>-7.349892945758424</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-7.392400375172244</v>
+        <v>-7.230216746420086</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>-0.449859611437363</v>
+        <v>-0.5824786732465874</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6988218790495296</v>
+        <v>-0.7093886681010724</v>
       </c>
     </row>
     <row r="27">
@@ -1186,20 +1182,20 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>43.63209534515337</v>
+        <v>43.46191138072524</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>58.69637420966117</v>
+        <v>58.00769712842513</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.516044180027766</v>
+        <v>2.860930071255691</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>9.240468877637928</v>
+        <v>9.136931339598643</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6156056990373849</v>
+        <v>0.7984039064566523</v>
       </c>
     </row>
     <row r="28">
@@ -1220,7 +1216,7 @@
         <v>-3.14147751221779</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.555809878932862</v>
+        <v>-2.55580987893286</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0.378459936785751</v>
@@ -1229,7 +1225,7 @@
         <v>-0.2160289914528093</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>-0.2602369038381183</v>
+        <v>-0.2602369038381181</v>
       </c>
     </row>
     <row r="29">
@@ -1240,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.371601004566834</v>
+        <v>-7.090993664596581</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.63397358840619</v>
+        <v>-10.75251307220491</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.645107134798737</v>
+        <v>-5.379643043703211</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.3929330458650014</v>
+        <v>-0.4004687745123901</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.6309101549036558</v>
+        <v>-0.6300528886656961</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.4846473022822776</v>
+        <v>-0.453228074401216</v>
       </c>
     </row>
     <row r="30">
@@ -1266,22 +1262,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.14318527877999</v>
+        <v>15.22963519761536</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.619912687473734</v>
+        <v>6.283829238670717</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2968519971270174</v>
+        <v>0.3057017477394988</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1.963833638914511</v>
+        <v>1.931583658086969</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.557041946550409</v>
+        <v>0.5682830925228831</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04176807531060499</v>
+        <v>0.06349010160098363</v>
       </c>
     </row>
     <row r="31">
